--- a/biology/Botanique/Ételle/Ételle.xlsx
+++ b/biology/Botanique/Ételle/Ételle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89telle</t>
+          <t>Ételle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ételle est un fin morceau de bois de dimension très supérieure aux composants de la sciure, souvent un copeau long et grossier produit au cours de l'abattage ou de l’équarrissage du bois, plus rarement une petite bûche ou une bûche. Au pluriel, le substantif prend souvent le sens nettement différent de débris de bois et/ou même uniquement d'écorces. Ce terme commun des métiers anciens du bois ou des cultures paysannes de l'Est de la France, surtout de la Savoie à la Lorraine, tend à disparaître ou à se limiter au lexique technique des exploitants forestiers, transformateurs du matériau bois, charpentiers et menuisiers. 
 Les ételles étaient autrefois recherchées auprès des scieries ou des campements forestiers de bûcherons et de scieurs de long pour constituer des réserves de menus bois sec de façon à pouvoir démarrer facilement un feu. Les fours de boulanger en consommaient aussi de grandes quantités.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89telle</t>
+          <t>Ételle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Définitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le supplément du Littré de 1877 mentionne que ce terme régional, qu'il suppose connu depuis 1807, est issu de l'ancien français estèle, éclat de lance, et se définit comme un déchet de bois produit par la coupe, en particulier le travail à la hache.
 Le Grand Larousse de l'année 1921 précise que ce déchet de bois est plus grand que la sciure et qu'il s'agit souvent d'un copeau produit par l’équarrissage du bois.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89telle</t>
+          <t>Ételle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Origine du terme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot provient de l'ancien français du XIIe siècle estele ou astele, parfois écrit estelle, désignant l'éclat de bois ou plus fréquemment l'éclat de lance qui blesse le combattant. Le mot plus tardif estel désignait aussi un petit pieu ou piquet, voire une cheville ou une pièce de bois comportant des encoches pour mesurer : il est parent de la pièce ou pieu d'étalonnage, l'étalon. 
 Mais la polysémie marque déjà l'ancien français astele. Trois sens sont reconnus :
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89telle</t>
+          <t>Ételle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,14 +603,16 @@
           <t>Le terme en français régional et autres dialectes romans</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La variante écrite en français régional atelle est attestée en 1807 dans le Maine et la Normandie. On dit encore estelle dans le Velay. Le verbe ételer en Poitou indique l'action de fendre le gros bois par quartier.  
 Le dialecte vosgien, issu de l'ancien français, définissait précisément une ételle, soit : 
 enne stèlle : un copeau produit par un coup de la hache.
 enne stèlatte : un petit copeau
 De manière péjorative, à l'instar de l'ancien français, il assimile l'ételle à une langue disant d'un mauvaise femme trop bavarde : Elle mène sè stelle après tot le monde (Elle parle mal de tout le monde). Sans doute par dérivation, l'expression demourer stel signifiait demeurer coi, rester imperturbablement silencieux.
-Le français véhiculaire des Vosges emploie presque exclusivement le substantif au pluriel avec le sens de débris génériques de bois. Les ételles peuvent désigner des morceaux d'écorces encore enroulées.« Le tourneur Sporte faisant siffler sa roue et dévidant ses ételles en rubans sans fin[1].»
+Le français véhiculaire des Vosges emploie presque exclusivement le substantif au pluriel avec le sens de débris génériques de bois. Les ételles peuvent désigner des morceaux d'écorces encore enroulées.« Le tourneur Sporte faisant siffler sa roue et dévidant ses ételles en rubans sans fin.»
 Mais il n'est nulle nécessité d'aller aux marges de la France d'oïl pour découvrir le mot et la chose. Le petit peuple qui, enfants ou adultes munis de hachettes, de hottes ou de paniers, hante le bois de Vincennes, récupère le petit bois et porte ételles et copeaux vers la grand ville, ainsi que l'écrivaient les frères Goncourt en résidence parisienne.
 </t>
         </is>
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89telle</t>
+          <t>Ételle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,9 +642,11 @@
           <t>Homonyme dans le registre maritime et fluvial</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ételle désigne aussi sur les côtes de la Manche, en particulier sur les bords de la Seine, une grande vague secondaire qui se produit à la suite du mascaret ou de la barre[2]. Elle est perçue d'abord par ses éclats d'eau puis par l'annonce prochaine d'étalement et de retour au calme de l'eau. Aussi l'idée de la facilité d'étalement, qui est aussi une propriété des ételles de bois du fait de leurs formes à la fois planes et allongées, semblerait justifier une lointaine origine étymologique commune.  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ételle désigne aussi sur les côtes de la Manche, en particulier sur les bords de la Seine, une grande vague secondaire qui se produit à la suite du mascaret ou de la barre. Elle est perçue d'abord par ses éclats d'eau puis par l'annonce prochaine d'étalement et de retour au calme de l'eau. Aussi l'idée de la facilité d'étalement, qui est aussi une propriété des ételles de bois du fait de leurs formes à la fois planes et allongées, semblerait justifier une lointaine origine étymologique commune.  
 </t>
         </is>
       </c>
